--- a/Proyecto 70%/Planta Base/Tiempos de Falla de estaciones.xlsx
+++ b/Proyecto 70%/Planta Base/Tiempos de Falla de estaciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\OneDrive - Universidad Nacional de Colombia\Escritorio\Semestre 16\APM\Proyecto\STEELO\Proyecto 70%\Planta Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1F6FE6-8CBA-4F74-8DC4-0DED67A3F6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA5AB49-FCDF-4548-B027-91C954851C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -765,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,8 +1155,8 @@
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <f>(0.3)*B37*12</f>
-        <v>86.399999999999991</v>
+        <f>(0.2)*B37*12</f>
+        <v>57.600000000000009</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>11</v>
@@ -1167,8 +1167,8 @@
         <v>4</v>
       </c>
       <c r="B41" s="1">
-        <f>(2)*12</f>
-        <v>24</v>
+        <f>(1)*12</f>
+        <v>12</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>11</v>
@@ -1191,8 +1191,8 @@
         <v>39</v>
       </c>
       <c r="B43" s="1">
-        <f>12*8</f>
-        <v>96</v>
+        <f>12*2</f>
+        <v>24</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>11</v>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B45" s="1">
         <f>B43+B42+B41+B40</f>
-        <v>218.39999999999998</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>11</v>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B46" s="1">
         <f>B38-B45</f>
-        <v>2085.6</v>
+        <v>2198.4</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>11</v>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B47" s="1">
         <f>B46/(B46+B45)</f>
-        <v>0.90520833333333328</v>
+        <v>0.95416666666666672</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>12</v>
@@ -1244,8 +1244,8 @@
         <v>10</v>
       </c>
       <c r="B48" s="18">
-        <f>+(8+1+1+1)/4</f>
-        <v>2.75</v>
+        <f>+(1+1+1+1)/4</f>
+        <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>11</v>
